--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Calr-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Calr-Itgav.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>72.79331566666667</v>
+        <v>36.40130033333333</v>
       </c>
       <c r="H2">
-        <v>218.379947</v>
+        <v>109.203901</v>
       </c>
       <c r="I2">
-        <v>0.2828741606141507</v>
+        <v>0.1897437225523226</v>
       </c>
       <c r="J2">
-        <v>0.2828741606141507</v>
+        <v>0.1897437225523226</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.535604</v>
+        <v>2.724001666666667</v>
       </c>
       <c r="N2">
-        <v>49.606812</v>
+        <v>8.172005</v>
       </c>
       <c r="O2">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="P2">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="Q2">
-        <v>1203.681441710996</v>
+        <v>99.15720277683388</v>
       </c>
       <c r="R2">
-        <v>10833.13297539896</v>
+        <v>892.414824991505</v>
       </c>
       <c r="S2">
-        <v>0.05998214039354324</v>
+        <v>0.008795571158747078</v>
       </c>
       <c r="T2">
-        <v>0.05998214039354326</v>
+        <v>0.00879557115874708</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>72.79331566666667</v>
+        <v>36.40130033333333</v>
       </c>
       <c r="H3">
-        <v>218.379947</v>
+        <v>109.203901</v>
       </c>
       <c r="I3">
-        <v>0.2828741606141507</v>
+        <v>0.1897437225523226</v>
       </c>
       <c r="J3">
-        <v>0.2828741606141507</v>
+        <v>0.1897437225523226</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>121.861892</v>
       </c>
       <c r="O3">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256352</v>
       </c>
       <c r="P3">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256351</v>
       </c>
       <c r="Q3">
-        <v>2956.910390697748</v>
+        <v>1478.643776626744</v>
       </c>
       <c r="R3">
-        <v>26612.19351627973</v>
+        <v>13307.79398964069</v>
       </c>
       <c r="S3">
-        <v>0.1473494631053253</v>
+        <v>0.1311605833116294</v>
       </c>
       <c r="T3">
-        <v>0.1473494631053253</v>
+        <v>0.1311605833116294</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>72.79331566666667</v>
+        <v>36.40130033333333</v>
       </c>
       <c r="H4">
-        <v>218.379947</v>
+        <v>109.203901</v>
       </c>
       <c r="I4">
-        <v>0.2828741606141507</v>
+        <v>0.1897437225523226</v>
       </c>
       <c r="J4">
-        <v>0.2828741606141507</v>
+        <v>0.1897437225523226</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.825229</v>
+        <v>15.419285</v>
       </c>
       <c r="N4">
-        <v>62.475687</v>
+        <v>46.257855</v>
       </c>
       <c r="O4">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="P4">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="Q4">
-        <v>1515.937468427621</v>
+        <v>561.2820242102616</v>
       </c>
       <c r="R4">
-        <v>13643.43721584859</v>
+        <v>5051.538217892355</v>
       </c>
       <c r="S4">
-        <v>0.07554255711528217</v>
+        <v>0.04978756808194616</v>
       </c>
       <c r="T4">
-        <v>0.07554255711528217</v>
+        <v>0.04978756808194616</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>351.510254</v>
       </c>
       <c r="I5">
-        <v>0.4553218801152877</v>
+        <v>0.6107553255746098</v>
       </c>
       <c r="J5">
-        <v>0.4553218801152877</v>
+        <v>0.6107553255746098</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.535604</v>
+        <v>2.724001666666667</v>
       </c>
       <c r="N5">
-        <v>49.606812</v>
+        <v>8.172005</v>
       </c>
       <c r="O5">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="P5">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="Q5">
-        <v>1937.478120694472</v>
+        <v>319.1715059154745</v>
       </c>
       <c r="R5">
-        <v>17437.30308625025</v>
+        <v>2872.54355323927</v>
       </c>
       <c r="S5">
-        <v>0.09654887133569111</v>
+        <v>0.02831156601343628</v>
       </c>
       <c r="T5">
-        <v>0.09654887133569112</v>
+        <v>0.02831156601343628</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>351.510254</v>
       </c>
       <c r="I6">
-        <v>0.4553218801152877</v>
+        <v>0.6107553255746098</v>
       </c>
       <c r="J6">
-        <v>0.4553218801152877</v>
+        <v>0.6107553255746098</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>121.861892</v>
       </c>
       <c r="O6">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256352</v>
       </c>
       <c r="P6">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256351</v>
       </c>
       <c r="Q6">
         <v>4759.52273442673</v>
       </c>
       <c r="R6">
-        <v>42835.70460984057</v>
+        <v>42835.70460984058</v>
       </c>
       <c r="S6">
-        <v>0.2371776709100333</v>
+        <v>0.4221853755449542</v>
       </c>
       <c r="T6">
-        <v>0.2371776709100333</v>
+        <v>0.4221853755449542</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>351.510254</v>
       </c>
       <c r="I7">
-        <v>0.4553218801152877</v>
+        <v>0.6107553255746098</v>
       </c>
       <c r="J7">
-        <v>0.4553218801152877</v>
+        <v>0.6107553255746098</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>20.825229</v>
+        <v>15.419285</v>
       </c>
       <c r="N7">
-        <v>62.475687</v>
+        <v>46.257855</v>
       </c>
       <c r="O7">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="P7">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="Q7">
-        <v>2440.093845132722</v>
+        <v>1806.678928949464</v>
       </c>
       <c r="R7">
-        <v>21960.8446061945</v>
+        <v>16260.11036054517</v>
       </c>
       <c r="S7">
-        <v>0.1215953378695634</v>
+        <v>0.1602583840162193</v>
       </c>
       <c r="T7">
-        <v>0.1215953378695634</v>
+        <v>0.1602583840162193</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>67.37122333333333</v>
+        <v>38.27317166666666</v>
       </c>
       <c r="H8">
-        <v>202.11367</v>
+        <v>114.819515</v>
       </c>
       <c r="I8">
-        <v>0.2618039592705618</v>
+        <v>0.1995009518730676</v>
       </c>
       <c r="J8">
-        <v>0.2618039592705618</v>
+        <v>0.1995009518730676</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.535604</v>
+        <v>2.724001666666667</v>
       </c>
       <c r="N8">
-        <v>49.606812</v>
+        <v>8.172005</v>
       </c>
       <c r="O8">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="P8">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="Q8">
-        <v>1114.02387003556</v>
+        <v>104.2561834086194</v>
       </c>
       <c r="R8">
-        <v>10026.21483032004</v>
+        <v>938.305650677575</v>
       </c>
       <c r="S8">
-        <v>0.05551430291992088</v>
+        <v>0.009247867570182568</v>
       </c>
       <c r="T8">
-        <v>0.05551430291992089</v>
+        <v>0.009247867570182568</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>67.37122333333333</v>
+        <v>38.27317166666666</v>
       </c>
       <c r="H9">
-        <v>202.11367</v>
+        <v>114.819515</v>
       </c>
       <c r="I9">
-        <v>0.2618039592705618</v>
+        <v>0.1995009518730676</v>
       </c>
       <c r="J9">
-        <v>0.2618039592705618</v>
+        <v>0.1995009518730676</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>121.861892</v>
       </c>
       <c r="O9">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256352</v>
       </c>
       <c r="P9">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256351</v>
       </c>
       <c r="Q9">
-        <v>2736.661580584849</v>
+        <v>1554.680370713598</v>
       </c>
       <c r="R9">
-        <v>24629.95422526365</v>
+        <v>13992.12333642238</v>
       </c>
       <c r="S9">
-        <v>0.1363739719231037</v>
+        <v>0.1379052801690516</v>
       </c>
       <c r="T9">
-        <v>0.1363739719231037</v>
+        <v>0.1379052801690516</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>67.37122333333333</v>
+        <v>38.27317166666666</v>
       </c>
       <c r="H10">
-        <v>202.11367</v>
+        <v>114.819515</v>
       </c>
       <c r="I10">
-        <v>0.2618039592705618</v>
+        <v>0.1995009518730676</v>
       </c>
       <c r="J10">
-        <v>0.2618039592705618</v>
+        <v>0.1995009518730676</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.825229</v>
+        <v>15.419285</v>
       </c>
       <c r="N10">
-        <v>62.475687</v>
+        <v>46.257855</v>
       </c>
       <c r="O10">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="P10">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="Q10">
-        <v>1403.02115392681</v>
+        <v>590.1449417822583</v>
       </c>
       <c r="R10">
-        <v>12627.19038534129</v>
+        <v>5311.304476040325</v>
       </c>
       <c r="S10">
-        <v>0.06991568442753716</v>
+        <v>0.05234780413383344</v>
       </c>
       <c r="T10">
-        <v>0.06991568442753716</v>
+        <v>0.05234780413383344</v>
       </c>
     </row>
   </sheetData>
